--- a/Inventarisatie_toneelstukken_DBNL.xlsx
+++ b/Inventarisatie_toneelstukken_DBNL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kbnationalebibliotheek-my.sharepoint.com/personal/lucas_vanderdeijl_kb_nl/Documents/Documents/Python Scripts/GitHub/dbnl_to_dracor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{C3D33909-F203-45A0-B2C0-7FE76E91FBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC28655F-6E42-4B89-A885-F523F3ADC079}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{C3D33909-F203-45A0-B2C0-7FE76E91FBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDAE94A8-FDEC-4CA1-BBA8-6210678948F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="599" xr2:uid="{DB052755-A876-4CBE-AE92-C305AA43DD6D}"/>
+    <workbookView xWindow="-28920" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="599" xr2:uid="{DB052755-A876-4CBE-AE92-C305AA43DD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Titeloverzicht_DEF" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7241" uniqueCount="2568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7278" uniqueCount="2576">
   <si>
     <t>1ste druk</t>
   </si>
@@ -7751,6 +7751,30 @@
   </si>
   <si>
     <t>dut000021</t>
+  </si>
+  <si>
+    <t>dut000022</t>
+  </si>
+  <si>
+    <t>dut000023</t>
+  </si>
+  <si>
+    <t>dut000024</t>
+  </si>
+  <si>
+    <t>dut000025</t>
+  </si>
+  <si>
+    <t>dut000026</t>
+  </si>
+  <si>
+    <t>dut000027</t>
+  </si>
+  <si>
+    <t>dut000028</t>
+  </si>
+  <si>
+    <t>dut000029</t>
   </si>
 </sst>
 </file>
@@ -9402,35 +9426,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349989B6-AEFF-46B6-AC97-23CAAB7ECC99}">
   <dimension ref="A1:AA194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Y153" sqref="Y153"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="7.54296875" style="3" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="36.26953125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.6328125" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="28.81640625" customWidth="1"/>
     <col min="8" max="8" width="17.453125" customWidth="1"/>
     <col min="9" max="9" width="11.26953125" customWidth="1"/>
     <col min="10" max="10" width="11.54296875" customWidth="1"/>
     <col min="11" max="12" width="55.453125" customWidth="1"/>
-    <col min="13" max="13" width="27.6328125" customWidth="1"/>
+    <col min="13" max="13" width="27.54296875" customWidth="1"/>
     <col min="14" max="14" width="7.1796875" customWidth="1"/>
     <col min="15" max="15" width="8.7265625" style="1"/>
     <col min="18" max="19" width="8.54296875" customWidth="1"/>
-    <col min="20" max="20" width="61.36328125" customWidth="1"/>
+    <col min="20" max="20" width="61.453125" customWidth="1"/>
     <col min="21" max="21" width="22.1796875" customWidth="1"/>
     <col min="22" max="22" width="13.1796875" customWidth="1"/>
     <col min="23" max="23" width="16.1796875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="18.08984375" customWidth="1"/>
-    <col min="25" max="25" width="15.36328125" customWidth="1"/>
-    <col min="26" max="26" width="23.08984375" customWidth="1"/>
+    <col min="24" max="24" width="18.1796875" customWidth="1"/>
+    <col min="25" max="25" width="15.453125" customWidth="1"/>
+    <col min="26" max="26" width="23.1796875" customWidth="1"/>
     <col min="27" max="27" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11081,8 +11105,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>824</v>
+      <c r="B29" s="12" t="s">
+        <v>1816</v>
       </c>
       <c r="D29" t="s">
         <v>1307</v>
@@ -11707,8 +11731,8 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>843</v>
+      <c r="B40" s="12" t="s">
+        <v>1926</v>
       </c>
       <c r="D40" t="s">
         <v>1318</v>
@@ -11989,8 +12013,8 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>861</v>
+      <c r="B45" s="12" t="s">
+        <v>2087</v>
       </c>
       <c r="D45" t="s">
         <v>1323</v>
@@ -12469,8 +12493,8 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>906</v>
+      <c r="B53" s="12" t="s">
+        <v>1833</v>
       </c>
       <c r="D53" t="s">
         <v>1331</v>
@@ -12697,8 +12721,8 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>920</v>
+      <c r="B57" s="12" t="s">
+        <v>2096</v>
       </c>
       <c r="D57" t="s">
         <v>1335</v>
@@ -12878,8 +12902,8 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>930</v>
+      <c r="B60" s="12" t="s">
+        <v>2035</v>
       </c>
       <c r="D60" t="s">
         <v>1338</v>
@@ -13290,8 +13314,8 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>937</v>
+      <c r="B67" s="12" t="s">
+        <v>1926</v>
       </c>
       <c r="D67" t="s">
         <v>1345</v>
@@ -13584,8 +13608,8 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>949</v>
+      <c r="B72" s="12" t="s">
+        <v>1926</v>
       </c>
       <c r="D72" t="s">
         <v>1350</v>
@@ -14998,8 +15022,8 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>1031</v>
+      <c r="B96" s="12" t="s">
+        <v>1863</v>
       </c>
       <c r="D96" t="s">
         <v>1374</v>
@@ -15112,8 +15136,8 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>1033</v>
+      <c r="B98" s="12" t="s">
+        <v>2102</v>
       </c>
       <c r="D98" t="s">
         <v>1376</v>
@@ -17311,13 +17335,13 @@
       <c r="X140" t="s">
         <v>729</v>
       </c>
-      <c r="Y140" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z140" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA140" s="29" t="s">
+      <c r="Y140" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA140" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17373,13 +17397,13 @@
       <c r="X141" t="s">
         <v>729</v>
       </c>
-      <c r="Y141" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z141" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA141" s="29" t="s">
+      <c r="Y141" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA141" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17497,13 +17521,13 @@
       <c r="X143" t="s">
         <v>729</v>
       </c>
-      <c r="Y143" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z143" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA143" s="29" t="s">
+      <c r="Y143" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA143" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17559,13 +17583,13 @@
       <c r="X144" t="s">
         <v>729</v>
       </c>
-      <c r="Y144" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z144" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA144" s="29" t="s">
+      <c r="Y144" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA144" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17621,13 +17645,13 @@
       <c r="X145" t="s">
         <v>729</v>
       </c>
-      <c r="Y145" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z145" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA145" s="29" t="s">
+      <c r="Y145" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA145" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17683,13 +17707,13 @@
       <c r="X146" t="s">
         <v>729</v>
       </c>
-      <c r="Y146" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z146" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA146" s="29" t="s">
+      <c r="Y146" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA146" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17745,13 +17769,13 @@
       <c r="X147" t="s">
         <v>729</v>
       </c>
-      <c r="Y147" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z147" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA147" s="29" t="s">
+      <c r="Y147" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA147" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17807,13 +17831,13 @@
       <c r="X148" t="s">
         <v>729</v>
       </c>
-      <c r="Y148" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z148" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA148" s="29" t="s">
+      <c r="Y148" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA148" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17869,13 +17893,13 @@
       <c r="X149" t="s">
         <v>729</v>
       </c>
-      <c r="Y149" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z149" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA149" s="29" t="s">
+      <c r="Y149" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA149" t="s">
         <v>729</v>
       </c>
     </row>
@@ -17984,13 +18008,13 @@
       <c r="X151" t="s">
         <v>729</v>
       </c>
-      <c r="Y151" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z151" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA151" s="29" t="s">
+      <c r="Y151" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA151" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18046,13 +18070,13 @@
       <c r="X152" t="s">
         <v>729</v>
       </c>
-      <c r="Y152" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z152" s="29" t="s">
-        <v>729</v>
-      </c>
-      <c r="AA152" s="29" t="s">
+      <c r="Y152" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA152" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18060,6 +18084,9 @@
       <c r="A153">
         <v>152</v>
       </c>
+      <c r="D153" t="s">
+        <v>2568</v>
+      </c>
       <c r="E153" s="3" t="s">
         <v>2292</v>
       </c>
@@ -18103,6 +18130,15 @@
         <v>729</v>
       </c>
       <c r="X153" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA153" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18110,6 +18146,9 @@
       <c r="A154">
         <v>153</v>
       </c>
+      <c r="D154" t="s">
+        <v>2569</v>
+      </c>
       <c r="E154" s="3" t="s">
         <v>2450</v>
       </c>
@@ -18156,6 +18195,15 @@
         <v>729</v>
       </c>
       <c r="X154" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA154" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18163,6 +18211,9 @@
       <c r="A155">
         <v>154</v>
       </c>
+      <c r="D155" t="s">
+        <v>2570</v>
+      </c>
       <c r="E155" s="3" t="s">
         <v>2377</v>
       </c>
@@ -18206,6 +18257,15 @@
         <v>729</v>
       </c>
       <c r="X155" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA155" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18213,6 +18273,9 @@
       <c r="A156">
         <v>155</v>
       </c>
+      <c r="D156" t="s">
+        <v>2571</v>
+      </c>
       <c r="E156" s="3" t="s">
         <v>2378</v>
       </c>
@@ -18256,6 +18319,15 @@
         <v>729</v>
       </c>
       <c r="X156" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA156" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18263,6 +18335,9 @@
       <c r="A157">
         <v>156</v>
       </c>
+      <c r="D157" t="s">
+        <v>2572</v>
+      </c>
       <c r="E157" s="3" t="s">
         <v>2379</v>
       </c>
@@ -18306,6 +18381,15 @@
         <v>729</v>
       </c>
       <c r="X157" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA157" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18313,6 +18397,9 @@
       <c r="A158">
         <v>157</v>
       </c>
+      <c r="D158" t="s">
+        <v>2573</v>
+      </c>
       <c r="E158" s="3" t="s">
         <v>2293</v>
       </c>
@@ -18356,6 +18443,15 @@
         <v>729</v>
       </c>
       <c r="X158" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA158" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18363,6 +18459,9 @@
       <c r="A159">
         <v>158</v>
       </c>
+      <c r="D159" t="s">
+        <v>2574</v>
+      </c>
       <c r="E159" s="3" t="s">
         <v>2294</v>
       </c>
@@ -18406,6 +18505,15 @@
         <v>729</v>
       </c>
       <c r="X159" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA159" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18413,6 +18521,9 @@
       <c r="A160">
         <v>159</v>
       </c>
+      <c r="D160" t="s">
+        <v>2575</v>
+      </c>
       <c r="E160" s="3" t="s">
         <v>2380</v>
       </c>
@@ -18456,6 +18567,15 @@
         <v>729</v>
       </c>
       <c r="X160" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y160" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z160" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA160" s="29" t="s">
         <v>729</v>
       </c>
     </row>
@@ -18525,6 +18645,9 @@
       <c r="A162">
         <v>161</v>
       </c>
+      <c r="D162" t="s">
+        <v>1280</v>
+      </c>
       <c r="E162" s="3" t="s">
         <v>2381</v>
       </c>
@@ -18568,12 +18691,24 @@
         <v>729</v>
       </c>
       <c r="X162" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y162" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z162" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="AA162" s="29" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="163" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1281</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>2382</v>
@@ -20245,8 +20380,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="51.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" style="3" customWidth="1"/>
+    <col min="1" max="2" width="51.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="3" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="60.26953125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
@@ -30676,27 +30811,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C290CA-F0D4-4551-AA7C-DAB815AB82D4}">
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T20" sqref="A1:V122"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="30.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
     <col min="10" max="11" width="19.54296875" customWidth="1"/>
-    <col min="12" max="12" width="8.90625" customWidth="1"/>
-    <col min="13" max="13" width="6.6328125" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" customWidth="1"/>
+    <col min="13" max="13" width="6.54296875" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="16" max="16" width="26.08984375" customWidth="1"/>
-    <col min="17" max="17" width="34.36328125" customWidth="1"/>
-    <col min="18" max="18" width="19.36328125" customWidth="1"/>
+    <col min="16" max="16" width="26.1796875" customWidth="1"/>
+    <col min="17" max="17" width="34.453125" customWidth="1"/>
+    <col min="18" max="18" width="19.453125" customWidth="1"/>
     <col min="19" max="19" width="41.81640625" customWidth="1"/>
-    <col min="20" max="20" width="17.08984375" customWidth="1"/>
+    <col min="20" max="20" width="17.1796875" customWidth="1"/>
     <col min="21" max="21" width="19.54296875" customWidth="1"/>
     <col min="22" max="22" width="27.1796875" customWidth="1"/>
   </cols>
